--- a/biology/Zoologie/Dino_Crisis_3/Dino_Crisis_3.xlsx
+++ b/biology/Zoologie/Dino_Crisis_3/Dino_Crisis_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dino Crisis 3 (ディノ クライシス3?) est un jeu vidéo d'action de type survival horror développé par Capcom Production Studio 4 et édité par Capcom en 2003 sur Xbox[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dino Crisis 3 (ディノ クライシス3?) est un jeu vidéo d'action de type survival horror développé par Capcom Production Studio 4 et édité par Capcom en 2003 sur Xbox.
 Il est le quatrième et dernier jeu de la franchise Dino Crisis. À l'image des précédentes itérations de la série, le gameplay s'articule autour d'affrontements contre des dinosaures et d'autres reptiles. L'action se déroule dans l'espace, sur une station spatiale. Contrairement à ses prédécesseurs, le jeu propose des dinosaures créés génétiquement à partir de mutations d'ADN extraits de diverses espèces de dinosaures.
-Initialement, le jeu est prévu pour sortir sur Xbox et PlayStation 2, mais cette dernière version est abandonnée au début du développement[2].
+Initialement, le jeu est prévu pour sortir sur Xbox et PlayStation 2, mais cette dernière version est abandonnée au début du développement.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,7 +553,9 @@
           <t>Système de jeu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nombre d'armes a été réduit à deux pistolets et à six types de munitions (une arme à feu et trois types de munitions par personnage jouable), en plus de petits droïdes de sécurité  appelés « WASP » qui aident contre les rencontres de dinosaures. Trois types de gilets pare-balles sont disponibles.
 </t>
@@ -570,9 +586,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jeuxvideo.com : 12/20[3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jeuxvideo.com : 12/20</t>
         </is>
       </c>
     </row>
